--- a/mbs-perturbation/nano/svm/nearmiss/nano-svm-sigmoid-nearmiss-results.xlsx
+++ b/mbs-perturbation/nano/svm/nearmiss/nano-svm-sigmoid-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4952380952380953</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7619047619047619</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8761904761904762</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.68</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2</v>
+        <v>0.85</v>
       </c>
       <c r="D4" t="n">
-        <v>0.186046511627907</v>
+        <v>0.7555555555555556</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0575</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="E5" t="n">
-        <v>0.175</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3125</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
         <v>0.25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2275</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3039492753623188</v>
+        <v>0.631993179880648</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3423809523809523</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3182550539595683</v>
+        <v>0.6021008804970313</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2767619047619048</v>
+        <v>0.6718095238095239</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/svm/nearmiss/nano-svm-sigmoid-nearmiss-results.xlsx
+++ b/mbs-perturbation/nano/svm/nearmiss/nano-svm-sigmoid-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7441860465116279</v>
+        <v>0.4375</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.3988919667590027</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7636363636363637</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8761904761904762</v>
+        <v>0.5069252077562327</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.68</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.85</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7555555555555556</v>
+        <v>0.6382978723404255</v>
       </c>
       <c r="E4" t="n">
-        <v>0.895</v>
+        <v>0.778393351800554</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="E5" t="n">
-        <v>0.51</v>
+        <v>0.9239766081871345</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.25</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5128205128205129</v>
       </c>
       <c r="E6" t="n">
-        <v>0.435</v>
+        <v>0.4649122807017544</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.631993179880648</v>
+        <v>0.5245125841900035</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.546783625730994</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6021008804970313</v>
+        <v>0.4912817959319215</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6718095238095239</v>
+        <v>0.6146198830409356</v>
       </c>
     </row>
   </sheetData>
